--- a/pred_ohlcv/54_21/2019-11-01 MTL ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-01 MTL ohlcv.xlsx
@@ -730,7 +730,7 @@
         <v>-24234.17156478999</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-65809.14797281999</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-144932.56508798</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-137129.9978912201</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-137129.9978912201</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-113904.3554912201</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-103158.2605912201</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-104346.7527912201</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-104346.7527912201</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-106866.2294912201</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-104782.8961912201</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-104782.8961912201</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-104782.8961912201</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-103183.4018912201</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-103183.4018912201</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-104182.1074912201</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-104182.1074912201</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-109765.9535912201</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>-107427.4055912201</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -5592,7 +5592,7 @@
         <v>-107621.3425912201</v>
       </c>
       <c r="H200">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201" spans="1:8">
@@ -5618,7 +5618,7 @@
         <v>-106228.0563912201</v>
       </c>
       <c r="H201">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202" spans="1:8">
@@ -5644,7 +5644,7 @@
         <v>-106480.4252912201</v>
       </c>
       <c r="H202">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203" spans="1:8">
@@ -5670,7 +5670,7 @@
         <v>-106480.4252912201</v>
       </c>
       <c r="H203">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204" spans="1:8">
@@ -5696,7 +5696,7 @@
         <v>-106480.4252912201</v>
       </c>
       <c r="H204">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-116084.6640912201</v>
       </c>
       <c r="H205">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-117648.2968912201</v>
       </c>
       <c r="H206">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-117648.2968912201</v>
       </c>
       <c r="H207">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-117647.2968912201</v>
       </c>
       <c r="H208">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-120112.5640912201</v>
       </c>
       <c r="H209">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-122793.1561912201</v>
       </c>
       <c r="H210">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-122792.1561912201</v>
       </c>
       <c r="H211">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -5904,7 +5904,7 @@
         <v>-128792.1561912201</v>
       </c>
       <c r="H212">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:8">
@@ -5930,7 +5930,7 @@
         <v>-140309.5122912201</v>
       </c>
       <c r="H213">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214" spans="1:8">
@@ -5956,7 +5956,7 @@
         <v>-121504.2037912201</v>
       </c>
       <c r="H214">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>-121504.2037912201</v>
       </c>
       <c r="H215">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-121503.2037912201</v>
       </c>
       <c r="H216">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-125714.2663912201</v>
       </c>
       <c r="H217">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-112361.3236912201</v>
       </c>
       <c r="H218">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-112362.3236912201</v>
       </c>
       <c r="H219">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-112362.3236912201</v>
       </c>
       <c r="H220">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-117979.4069912201</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-118085.4069912201</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-118563.9912912201</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-118563.9912912201</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-118563.9912912201</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-118563.9912912201</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-118539.9912912201</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-119119.9911912201</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-109618.9327912201</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-105844.4616912201</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-105844.4616912201</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-105852.0805912201</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-105852.0805912201</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-105850.0805912201</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-105850.0805912201</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-106313.2605912201</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-106313.2605912201</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-106313.2605912201</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-104127.5953912201</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-104127.5953912201</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-104127.5953912201</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-104127.5953912201</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-104127.5953912201</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-104127.5953912201</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-104127.5953912201</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-104127.5953912201</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-104127.5953912201</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-98022.88808637008</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-98022.88808637008</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-98535.88808637008</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-97492.40895757008</v>
       </c>
       <c r="H254">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-97864.14495757008</v>
       </c>
       <c r="H255">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-100197.7262575701</v>
       </c>
       <c r="H256">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-94884.30685757009</v>
       </c>
       <c r="H257">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-94418.49335757009</v>
       </c>
       <c r="H258">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-97312.26695757009</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-112264.6467575701</v>
       </c>
       <c r="H260">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-113842.4515575701</v>
       </c>
       <c r="H261">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-120733.4670575701</v>
       </c>
       <c r="H262">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-120432.4670575701</v>
       </c>
       <c r="H263">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-120432.4670575701</v>
       </c>
       <c r="H264">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-117437.6561575701</v>
       </c>
       <c r="H265">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-122143.8854575701</v>
       </c>
       <c r="H266">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-128710.6574575701</v>
       </c>
       <c r="H267">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-128667.3723575701</v>
       </c>
       <c r="H268">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-128666.2623575701</v>
       </c>
       <c r="H269">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-128666.2623575701</v>
       </c>
       <c r="H270">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-128242.2577575701</v>
       </c>
       <c r="H271">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-129323.6135575701</v>
       </c>
       <c r="H272">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-129323.6135575701</v>
       </c>
       <c r="H273">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-129543.0634575701</v>
       </c>
       <c r="H274">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-128500.1930575701</v>
       </c>
       <c r="H275">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-129120.6003575701</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-129119.6003575701</v>
       </c>
       <c r="H277">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-132120.5459575701</v>
       </c>
       <c r="H278">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-133601.9632575701</v>
       </c>
       <c r="H279">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-161128.1388575701</v>
       </c>
       <c r="H280">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-160740.4243575701</v>
       </c>
       <c r="H281">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-160740.4243575701</v>
       </c>
       <c r="H282">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-158872.3190575701</v>
       </c>
       <c r="H289">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>-200019.4790305801</v>
       </c>
       <c r="H368">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>-200019.4790305801</v>
       </c>
       <c r="H369">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>-200019.4790305801</v>
       </c>
       <c r="H370">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>-200019.4790305801</v>
       </c>
       <c r="H371">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>-188419.6979305801</v>
       </c>
       <c r="H372">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>-211432.2190305801</v>
       </c>
       <c r="H373">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>-211432.2190305801</v>
       </c>
       <c r="H374">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>-211432.2190305801</v>
       </c>
       <c r="H375">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-211432.2190305801</v>
       </c>
       <c r="H376">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-211432.2190305801</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>-211432.2190305801</v>
       </c>
       <c r="H378">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>-209219.3074305801</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>-207125.3849305801</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-207824.9252305801</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-207799.0439305801</v>
       </c>
       <c r="H382">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-207799.0439305801</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>-213882.9716305801</v>
       </c>
       <c r="H384">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-206640.0842305801</v>
       </c>
       <c r="H385">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-205064.1522129501</v>
       </c>
       <c r="H386">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>-205064.1522129501</v>
       </c>
       <c r="H387">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>-213600.3771953201</v>
       </c>
       <c r="H388">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>-206310.77749532</v>
       </c>
       <c r="H396">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>-204981.79509532</v>
       </c>
       <c r="H402">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>-191360.23629532</v>
       </c>
       <c r="H405">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>-191847.86919532</v>
       </c>
       <c r="H406">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>-186389.72739532</v>
       </c>
       <c r="H407">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-189813.85749532</v>
       </c>
       <c r="H412">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-189813.85749532</v>
       </c>
       <c r="H413">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>-259456.9950846001</v>
       </c>
       <c r="H494">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>-258456.9950846001</v>
       </c>
       <c r="H495">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>-258814.7246846001</v>
       </c>
       <c r="H500">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>-267802.8380846001</v>
       </c>
       <c r="H501">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>-267802.8380846001</v>
       </c>
       <c r="H502">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>-267802.8380846001</v>
       </c>
       <c r="H503">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>-267849.7180846001</v>
       </c>
       <c r="H511">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>-268623.8310846001</v>
       </c>
       <c r="H512">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>-268620.7601846001</v>
       </c>
       <c r="H513">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>-262713.3384991901</v>
       </c>
       <c r="H514">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>-297442.76819919</v>
       </c>
       <c r="H534">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>-297345.1276991901</v>
       </c>
       <c r="H535">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>-293046.9206991901</v>
       </c>
       <c r="H536">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>-294785.79789919</v>
       </c>
       <c r="H546">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>-294785.79789919</v>
       </c>
       <c r="H547">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>-294785.79789919</v>
       </c>
       <c r="H548">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>-287310.0872991901</v>
       </c>
       <c r="H551">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>-287310.0872991901</v>
       </c>
       <c r="H552">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>-287310.0872991901</v>
       </c>
       <c r="H553">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>-287310.0872991901</v>
       </c>
       <c r="H554">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>-287310.0872991901</v>
       </c>
       <c r="H555">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>-287310.0872991901</v>
       </c>
       <c r="H556">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>-287310.0872991901</v>
       </c>
       <c r="H557">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>-287310.0872991901</v>
       </c>
       <c r="H558">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>-287310.0872991901</v>
       </c>
       <c r="H559">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>-287310.0872991901</v>
       </c>
       <c r="H560">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -14978,7 +14978,7 @@
         <v>-287310.0872991901</v>
       </c>
       <c r="H561">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -15004,7 +15004,7 @@
         <v>-285944.0872991901</v>
       </c>
       <c r="H562">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -15030,7 +15030,7 @@
         <v>-275806.7283991901</v>
       </c>
       <c r="H563">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -15056,7 +15056,7 @@
         <v>-278465.9134991901</v>
       </c>
       <c r="H564">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -15082,7 +15082,7 @@
         <v>-278465.9134991901</v>
       </c>
       <c r="H565">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -15108,7 +15108,7 @@
         <v>-277927.3864991901</v>
       </c>
       <c r="H566">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>-277927.3864991901</v>
       </c>
       <c r="H567">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -15160,7 +15160,7 @@
         <v>-277955.8240991901</v>
       </c>
       <c r="H568">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -15212,7 +15212,7 @@
         <v>-278803.8145991901</v>
       </c>
       <c r="H570">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -15238,7 +15238,7 @@
         <v>-278803.8145991901</v>
       </c>
       <c r="H571">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -15264,7 +15264,7 @@
         <v>-278803.8145991901</v>
       </c>
       <c r="H572">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -15498,7 +15498,7 @@
         <v>-279097.8952991902</v>
       </c>
       <c r="H581">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -15524,7 +15524,7 @@
         <v>-277312.7859991902</v>
       </c>
       <c r="H582">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -15550,7 +15550,7 @@
         <v>-277312.7859991902</v>
       </c>
       <c r="H583">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="584" spans="1:8">
@@ -15602,7 +15602,7 @@
         <v>-312135.8681991902</v>
       </c>
       <c r="H585">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>-318394.8512342502</v>
       </c>
       <c r="H628">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>-318394.8512342502</v>
       </c>
       <c r="H629">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>-325332.4976342503</v>
       </c>
       <c r="H630">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>-325331.4976342503</v>
       </c>
       <c r="H631">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>-327541.8026342503</v>
       </c>
       <c r="H632">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>-325345.8398342503</v>
       </c>
       <c r="H633">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>-325345.8398342503</v>
       </c>
       <c r="H634">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>-327729.8819342503</v>
       </c>
       <c r="H635">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>-327728.8819342503</v>
       </c>
       <c r="H636">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>-328035.5532342503</v>
       </c>
       <c r="H640">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>-334034.4174342503</v>
       </c>
       <c r="H641">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-11-01 MTL ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-01 MTL ohlcv.xlsx
@@ -782,7 +782,7 @@
         <v>-65809.14797281999</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>-144932.56508798</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>-137129.9978912201</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>-137129.9978912201</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>-113904.3554912201</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>-103158.2605912201</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>-104346.7527912201</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-104346.7527912201</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-106866.2294912201</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-104782.8961912201</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>-104782.8961912201</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>-104782.8961912201</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>-103183.4018912201</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>-103183.4018912201</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>-103183.4018912201</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>-103183.4018912201</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>-104182.1074912201</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>-104182.1074912201</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>-109765.9535912201</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>-107177.6701912201</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5722,7 +5722,7 @@
         <v>-116084.6640912201</v>
       </c>
       <c r="H205">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="206" spans="1:8">
@@ -5748,7 +5748,7 @@
         <v>-117648.2968912201</v>
       </c>
       <c r="H206">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="207" spans="1:8">
@@ -5774,7 +5774,7 @@
         <v>-117648.2968912201</v>
       </c>
       <c r="H207">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="208" spans="1:8">
@@ -5800,7 +5800,7 @@
         <v>-117647.2968912201</v>
       </c>
       <c r="H208">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="209" spans="1:8">
@@ -5826,7 +5826,7 @@
         <v>-120112.5640912201</v>
       </c>
       <c r="H209">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="210" spans="1:8">
@@ -5852,7 +5852,7 @@
         <v>-122793.1561912201</v>
       </c>
       <c r="H210">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="211" spans="1:8">
@@ -5878,7 +5878,7 @@
         <v>-122792.1561912201</v>
       </c>
       <c r="H211">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="212" spans="1:8">
@@ -6008,7 +6008,7 @@
         <v>-121503.2037912201</v>
       </c>
       <c r="H216">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:8">
@@ -6034,7 +6034,7 @@
         <v>-125714.2663912201</v>
       </c>
       <c r="H217">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:8">
@@ -6060,7 +6060,7 @@
         <v>-112361.3236912201</v>
       </c>
       <c r="H218">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:8">
@@ -6086,7 +6086,7 @@
         <v>-112362.3236912201</v>
       </c>
       <c r="H219">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="220" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-112362.3236912201</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-117979.4069912201</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>-117979.4069912201</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>-117978.4069912201</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>-118085.4069912201</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-118085.4069912201</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-105844.4616912201</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-105852.0805912201</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-105852.0805912201</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-105850.0805912201</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-105850.0805912201</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-106313.2605912201</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-106313.2605912201</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-106313.2605912201</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-104127.5953912201</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-104127.5953912201</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-104127.5953912201</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-104127.5953912201</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-104127.5953912201</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-104127.5953912201</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-104127.5953912201</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-104127.5953912201</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-104127.5953912201</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-98022.88808637008</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-98022.88808637008</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-98535.88808637008</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-97492.40895757008</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-97864.14495757008</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-100197.7262575701</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-94884.30685757009</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-94418.49335757009</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-97312.26695757009</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-112264.6467575701</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-113842.4515575701</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-120733.4670575701</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-117437.6561575701</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-122143.8854575701</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-128710.6574575701</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-128667.3723575701</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-128666.2623575701</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-128242.2577575701</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-129323.6135575701</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-129323.6135575701</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-129543.0634575701</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-128500.1930575701</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>-200019.4790305801</v>
       </c>
       <c r="H368">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>-200019.4790305801</v>
       </c>
       <c r="H369">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>-200019.4790305801</v>
       </c>
       <c r="H370">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>-200019.4790305801</v>
       </c>
       <c r="H371">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>-188419.6979305801</v>
       </c>
       <c r="H372">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>-211432.2190305801</v>
       </c>
       <c r="H373">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>-211432.2190305801</v>
       </c>
       <c r="H374">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>-211432.2190305801</v>
       </c>
       <c r="H375">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>-211432.2190305801</v>
       </c>
       <c r="H376">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>-211432.2190305801</v>
       </c>
       <c r="H377">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>-211432.2190305801</v>
       </c>
       <c r="H378">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>-209219.3074305801</v>
       </c>
       <c r="H379">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>-207125.3849305801</v>
       </c>
       <c r="H380">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>-207824.9252305801</v>
       </c>
       <c r="H381">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>-207799.0439305801</v>
       </c>
       <c r="H382">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>-207799.0439305801</v>
       </c>
       <c r="H383">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>-213882.9716305801</v>
       </c>
       <c r="H384">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-206640.0842305801</v>
       </c>
       <c r="H385">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-205064.1522129501</v>
       </c>
       <c r="H386">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>-205064.1522129501</v>
       </c>
       <c r="H387">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>-212241.8223953201</v>
       </c>
       <c r="H389">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>-210398.3317441601</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>-206842.2856078501</v>
       </c>
       <c r="H392">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>-207301.8308078501</v>
       </c>
       <c r="H393">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>-208870.61000785</v>
       </c>
       <c r="H394">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>-204995.28849532</v>
       </c>
       <c r="H395">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>-202712.03219532</v>
       </c>
       <c r="H397">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>-204231.29719532</v>
       </c>
       <c r="H398">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>-202940.03109532</v>
       </c>
       <c r="H399">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>-202913.79509532</v>
       </c>
       <c r="H400">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>-205293.79509532</v>
       </c>
       <c r="H401">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>-204981.79509532</v>
       </c>
       <c r="H403">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>-203832.31419532</v>
       </c>
       <c r="H404">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>-191360.23629532</v>
       </c>
       <c r="H405">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>-191847.86919532</v>
       </c>
       <c r="H406">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>-186389.72739532</v>
       </c>
       <c r="H407">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>-191088.96349532</v>
       </c>
       <c r="H408">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>-187687.86179532</v>
       </c>
       <c r="H409">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>-186427.79449532</v>
       </c>
       <c r="H410">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>-186427.79449532</v>
       </c>
       <c r="H411">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-189813.85749532</v>
       </c>
       <c r="H412">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-189813.85749532</v>
       </c>
       <c r="H413">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>-195168.61059532</v>
       </c>
       <c r="H414">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>-267802.8380846001</v>
       </c>
       <c r="H502">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>-267802.8380846001</v>
       </c>
       <c r="H503">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>-267849.7180846001</v>
       </c>
       <c r="H511">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>-268623.8310846001</v>
       </c>
       <c r="H512">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>-268620.7601846001</v>
       </c>
       <c r="H513">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>-262713.3384991901</v>
       </c>
       <c r="H514">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>-262713.3384991901</v>
       </c>
       <c r="H515">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>-262713.3384991901</v>
       </c>
       <c r="H516">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>-262531.32209919</v>
       </c>
       <c r="H517">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>-259590.25319919</v>
       </c>
       <c r="H520">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>-259587.25319919</v>
       </c>
       <c r="H521">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>-259587.25319919</v>
       </c>
       <c r="H522">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>-298539.02239919</v>
       </c>
       <c r="H525">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>-295792.23499919</v>
       </c>
       <c r="H532">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>-297442.76819919</v>
       </c>
       <c r="H534">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>-297345.1276991901</v>
       </c>
       <c r="H535">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>-293046.9206991901</v>
       </c>
       <c r="H536">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>-293045.9206991901</v>
       </c>
       <c r="H539">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>-293045.9206991901</v>
       </c>
       <c r="H540">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>-294785.79789919</v>
       </c>
       <c r="H546">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>-294785.79789919</v>
       </c>
       <c r="H547">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>-294785.79789919</v>
       </c>
       <c r="H548">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>-277744.3559991901</v>
       </c>
       <c r="H549">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>-287311.0872991901</v>
       </c>
       <c r="H550">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>-287310.0872991901</v>
       </c>
       <c r="H551">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>-287310.0872991901</v>
       </c>
       <c r="H552">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>-287310.0872991901</v>
       </c>
       <c r="H553">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>-287310.0872991901</v>
       </c>
       <c r="H554">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>-287310.0872991901</v>
       </c>
       <c r="H555">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>-287310.0872991901</v>
       </c>
       <c r="H556">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>-287310.0872991901</v>
       </c>
       <c r="H557">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>-287310.0872991901</v>
       </c>
       <c r="H558">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>-287310.0872991901</v>
       </c>
       <c r="H559">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>-287310.0872991901</v>
       </c>
       <c r="H560">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -14978,7 +14978,7 @@
         <v>-287310.0872991901</v>
       </c>
       <c r="H561">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -15004,7 +15004,7 @@
         <v>-285944.0872991901</v>
       </c>
       <c r="H562">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -15030,7 +15030,7 @@
         <v>-275806.7283991901</v>
       </c>
       <c r="H563">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -15056,7 +15056,7 @@
         <v>-278465.9134991901</v>
       </c>
       <c r="H564">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -15082,7 +15082,7 @@
         <v>-278465.9134991901</v>
       </c>
       <c r="H565">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -15108,7 +15108,7 @@
         <v>-277927.3864991901</v>
       </c>
       <c r="H566">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>-277927.3864991901</v>
       </c>
       <c r="H567">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -15160,7 +15160,7 @@
         <v>-277955.8240991901</v>
       </c>
       <c r="H568">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -15212,7 +15212,7 @@
         <v>-278803.8145991901</v>
       </c>
       <c r="H570">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -15238,7 +15238,7 @@
         <v>-278803.8145991901</v>
       </c>
       <c r="H571">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -15264,7 +15264,7 @@
         <v>-278803.8145991901</v>
       </c>
       <c r="H572">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -15290,7 +15290,7 @@
         <v>-278720.4435991901</v>
       </c>
       <c r="H573">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>-281428.2940991902</v>
       </c>
       <c r="H578">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15446,7 +15446,7 @@
         <v>-281457.4746991902</v>
       </c>
       <c r="H579">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -15472,7 +15472,7 @@
         <v>-277294.8952991902</v>
       </c>
       <c r="H580">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -15498,7 +15498,7 @@
         <v>-279097.8952991902</v>
       </c>
       <c r="H581">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -15524,7 +15524,7 @@
         <v>-277312.7859991902</v>
       </c>
       <c r="H582">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -15550,7 +15550,7 @@
         <v>-277312.7859991902</v>
       </c>
       <c r="H583">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="584" spans="1:8">
@@ -15576,7 +15576,7 @@
         <v>-277312.7859991902</v>
       </c>
       <c r="H584">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -15602,7 +15602,7 @@
         <v>-312135.8681991902</v>
       </c>
       <c r="H585">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>-301290.8649342502</v>
       </c>
       <c r="H611">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>-306244.0100342502</v>
       </c>
       <c r="H612">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>-306244.0100342502</v>
       </c>
       <c r="H613">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>-304810.9230342502</v>
       </c>
       <c r="H614">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>-305307.3600342502</v>
       </c>
       <c r="H615">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16408,7 +16408,7 @@
         <v>-315913.0205342502</v>
       </c>
       <c r="H616">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="617" spans="1:8">
@@ -16434,7 +16434,7 @@
         <v>-315305.3518342502</v>
       </c>
       <c r="H617">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="618" spans="1:8">
@@ -16460,7 +16460,7 @@
         <v>-313908.9859342502</v>
       </c>
       <c r="H618">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="619" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>-315148.6745342502</v>
       </c>
       <c r="H621">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>-313686.5498342502</v>
       </c>
       <c r="H622">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>-313686.5498342502</v>
       </c>
       <c r="H623">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -16616,7 +16616,7 @@
         <v>-316756.1052342503</v>
       </c>
       <c r="H624">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="625" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>-316656.1052342503</v>
       </c>
       <c r="H625">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>-317464.8574342502</v>
       </c>
       <c r="H626">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>-318415.8512342502</v>
       </c>
       <c r="H627">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>-318394.8512342502</v>
       </c>
       <c r="H628">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>-318394.8512342502</v>
       </c>
       <c r="H629">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>-325332.4976342503</v>
       </c>
       <c r="H630">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>-325331.4976342503</v>
       </c>
       <c r="H631">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>-327541.8026342503</v>
       </c>
       <c r="H632">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>-325345.8398342503</v>
       </c>
       <c r="H633">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>-325345.8398342503</v>
       </c>
       <c r="H634">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>-327729.8819342503</v>
       </c>
       <c r="H635">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>-327728.8819342503</v>
       </c>
       <c r="H636">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>-327728.7000342503</v>
       </c>
       <c r="H639">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>-328035.5532342503</v>
       </c>
       <c r="H640">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>-334034.4174342503</v>
       </c>
       <c r="H641">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
